--- a/biology/Médecine/Allodrome/Allodrome.xlsx
+++ b/biology/Médecine/Allodrome/Allodrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sont qualifiés d'allodrome des groupements cliniques hétérogènes dont les manifestations appartiennent aux organes les plus différents mais qui sont toutes le résultat d'un même trouble fonctionnel unique, toutes la même origine factorielle probablement génétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les manifestations suivantes :  
 dermite allergique
